--- a/Questions.xlsx
+++ b/Questions.xlsx
@@ -25,6 +25,7 @@
     <definedName function="false" hidden="false" localSheetId="3" name="_xlnm._FilterDatabase" vbProcedure="false">Linux!$A$39:$E$219</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase" vbProcedure="false">Others!$A$1:$C$87</definedName>
     <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0" vbProcedure="false">Others!$A$1:$C$87</definedName>
+    <definedName function="false" hidden="false" localSheetId="10" name="_xlnm._FilterDatabase_0_0" vbProcedure="false">Others!$A$1:$C$87</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -2704,7 +2705,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="37">
+  <cellXfs count="42">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2825,12 +2826,28 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -2838,6 +2855,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2882,13 +2903,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.5303643724696"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.246963562753"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.6396761133603"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.5668016194332"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.748987854251"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="19.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="18.6396761133603"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="18.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="23.6720647773279"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="12.8542510121458"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="8" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3128,9 +3149,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="131.433198380567"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="132.611336032389"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2105263157895"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.3198380566802"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -3143,10 +3164,10 @@
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="34" t="n">
+      <c r="A2" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="35" t="s">
+      <c r="B2" s="40" t="s">
         <v>651</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -3158,311 +3179,311 @@
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="34" t="n">
+      <c r="A3" s="39" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="40" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="34" t="n">
+      <c r="A4" s="39" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="40" t="s">
         <v>653</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="34" t="n">
+      <c r="A5" s="39" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="35" t="s">
+      <c r="B5" s="40" t="s">
         <v>654</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="34" t="n">
+      <c r="A6" s="39" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="35" t="s">
+      <c r="B6" s="40" t="s">
         <v>655</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="34" t="n">
+      <c r="A7" s="39" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="40" t="s">
         <v>656</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="34" t="n">
+      <c r="A8" s="39" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="35" t="s">
+      <c r="B8" s="40" t="s">
         <v>657</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="34" t="n">
+      <c r="A9" s="39" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="40" t="s">
         <v>658</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="34" t="n">
+      <c r="A10" s="39" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="35" t="s">
+      <c r="B10" s="40" t="s">
         <v>659</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="34" t="n">
+      <c r="A11" s="39" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="35" t="s">
+      <c r="B11" s="40" t="s">
         <v>660</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="34" t="n">
+      <c r="A12" s="39" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="35" t="s">
+      <c r="B12" s="40" t="s">
         <v>661</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="34" t="n">
+      <c r="A13" s="39" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="35" t="s">
+      <c r="B13" s="40" t="s">
         <v>662</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="34" t="n">
+      <c r="A14" s="39" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="40" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="34" t="n">
+      <c r="A15" s="39" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="40" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="34" t="n">
+      <c r="A16" s="39" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="40" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="34" t="n">
+      <c r="A17" s="39" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="40" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="34" t="n">
+      <c r="A18" s="39" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="35" t="s">
+      <c r="B18" s="40" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="34" t="n">
+      <c r="A19" s="39" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="35" t="s">
+      <c r="B19" s="40" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="34" t="n">
+      <c r="A20" s="39" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="35" t="s">
+      <c r="B20" s="40" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="34" t="n">
+      <c r="A21" s="39" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="35" t="s">
+      <c r="B21" s="40" t="s">
         <v>670</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="34" t="n">
+      <c r="A22" s="39" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="35" t="s">
+      <c r="B22" s="40" t="s">
         <v>671</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="34" t="n">
+      <c r="A23" s="39" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="35" t="s">
+      <c r="B23" s="40" t="s">
         <v>672</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="34" t="n">
+      <c r="A24" s="39" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="35" t="s">
+      <c r="B24" s="40" t="s">
         <v>673</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="34" t="n">
+      <c r="A25" s="39" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="35" t="s">
+      <c r="B25" s="40" t="s">
         <v>674</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="34" t="n">
+      <c r="A26" s="39" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="35" t="s">
+      <c r="B26" s="40" t="s">
         <v>675</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="34" t="n">
+      <c r="A27" s="39" t="n">
         <v>26</v>
       </c>
-      <c r="B27" s="35" t="s">
+      <c r="B27" s="40" t="s">
         <v>676</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="34" t="n">
+      <c r="A28" s="39" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="35" t="s">
+      <c r="B28" s="40" t="s">
         <v>677</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="34" t="n">
+      <c r="A29" s="39" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="35" t="s">
+      <c r="B29" s="40" t="s">
         <v>678</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="34" t="n">
+      <c r="A30" s="39" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="35" t="s">
+      <c r="B30" s="40" t="s">
         <v>679</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="34" t="n">
+      <c r="A31" s="39" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="35" t="s">
+      <c r="B31" s="40" t="s">
         <v>680</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="34" t="n">
+      <c r="A32" s="39" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="35" t="s">
+      <c r="B32" s="40" t="s">
         <v>681</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="34" t="n">
+      <c r="A33" s="39" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="35" t="s">
+      <c r="B33" s="40" t="s">
         <v>682</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="34" t="n">
+      <c r="A34" s="39" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="35" t="s">
+      <c r="B34" s="40" t="s">
         <v>683</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="34" t="n">
+      <c r="A35" s="39" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="35" t="s">
+      <c r="B35" s="40" t="s">
         <v>684</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="34" t="n">
+      <c r="A36" s="39" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="35" t="s">
+      <c r="B36" s="40" t="s">
         <v>685</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="34" t="n">
+      <c r="A37" s="39" t="n">
         <v>36</v>
       </c>
-      <c r="B37" s="35" t="s">
+      <c r="B37" s="40" t="s">
         <v>686</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="34" t="n">
+      <c r="A38" s="39" t="n">
         <v>37</v>
       </c>
-      <c r="B38" s="35" t="s">
+      <c r="B38" s="40" t="s">
         <v>687</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="34" t="n">
+      <c r="A39" s="39" t="n">
         <v>38</v>
       </c>
-      <c r="B39" s="35" t="s">
+      <c r="B39" s="40" t="s">
         <v>688</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="34" t="n">
+      <c r="A40" s="39" t="n">
         <v>39</v>
       </c>
-      <c r="B40" s="35" t="s">
+      <c r="B40" s="40" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="34" t="n">
+      <c r="A41" s="39" t="n">
         <v>40</v>
       </c>
       <c r="B41" s="23" t="s">
@@ -3470,7 +3491,7 @@
       </c>
     </row>
     <row r="42" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="34" t="n">
+      <c r="A42" s="39" t="n">
         <v>41</v>
       </c>
       <c r="B42" s="24" t="s">
@@ -3502,8 +3523,8 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="107.441295546559"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.6032388663968"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="108.404858299595"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="19.7085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="5" min="5" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="6" style="0" width="8.57085020242915"/>
@@ -4277,7 +4298,7 @@
       <c r="A70" s="21" t="n">
         <v>69</v>
       </c>
-      <c r="B70" s="36" t="s">
+      <c r="B70" s="41" t="s">
         <v>768</v>
       </c>
       <c r="C70" s="5" t="s">
@@ -4498,9 +4519,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="124.578947368421"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="125.651821862348"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.1052631578947"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -5857,7 +5878,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="130.364372469636"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="131.542510121458"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.3886639676113"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
@@ -6282,9 +6303,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="122.651821862348"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="123.720647773279"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7885,15 +7906,15 @@
   <dimension ref="A1:E79"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="B49" activeCellId="0" sqref="B49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="125.222672064777"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="126.291497975708"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.1740890688259"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="13.2834008097166"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -7905,11 +7926,11 @@
         <v>422</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="6" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="30" t="s">
         <v>423</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -7920,27 +7941,27 @@
         <v>78</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="6" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="23" t="s">
+      <c r="B3" s="30" t="s">
         <v>424</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="6" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="30" t="s">
         <v>425</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="6" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="30" t="s">
         <v>426</v>
       </c>
     </row>
@@ -7952,19 +7973,19 @@
         <v>427</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="6" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="30" t="s">
         <v>428</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="6" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="30" t="s">
         <v>429</v>
       </c>
     </row>
@@ -7976,27 +7997,27 @@
         <v>430</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="10" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="6" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="B10" s="30" t="s">
         <v>431</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="6" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="B11" s="30" t="s">
         <v>432</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="12" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="6" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="23" t="s">
+      <c r="B12" s="30" t="s">
         <v>433</v>
       </c>
     </row>
@@ -8008,19 +8029,19 @@
         <v>434</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="6" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="30" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="15" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="6" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="30" t="s">
         <v>435</v>
       </c>
     </row>
@@ -8136,11 +8157,11 @@
         <v>449</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="6" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="30" t="s">
         <v>450</v>
       </c>
     </row>
@@ -8176,11 +8197,11 @@
         <v>454</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="6" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="30" t="s">
         <v>455</v>
       </c>
     </row>
@@ -8264,43 +8285,43 @@
         <v>465</v>
       </c>
     </row>
-    <row r="46" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>45</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="31" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="47" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>46</v>
       </c>
-      <c r="B47" s="24" t="s">
+      <c r="B47" s="31" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="48" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <v>47</v>
       </c>
-      <c r="B48" s="30" t="s">
+      <c r="B48" s="32" t="s">
         <v>468</v>
       </c>
     </row>
-    <row r="49" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="49" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="6" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="24" t="s">
+      <c r="B49" s="31" t="s">
         <v>467</v>
       </c>
     </row>
-    <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="50" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="6" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="24" t="s">
+      <c r="B50" s="31" t="s">
         <v>469</v>
       </c>
     </row>
@@ -8320,27 +8341,27 @@
         <v>471</v>
       </c>
     </row>
-    <row r="53" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="53" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="6" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="24" t="s">
+      <c r="B53" s="31" t="s">
         <v>472</v>
       </c>
     </row>
-    <row r="54" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>53</v>
       </c>
-      <c r="B54" s="24" t="s">
+      <c r="B54" s="31" t="s">
         <v>473</v>
       </c>
     </row>
-    <row r="55" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>54</v>
       </c>
-      <c r="B55" s="24" t="s">
+      <c r="B55" s="31" t="s">
         <v>474</v>
       </c>
     </row>
@@ -8348,23 +8369,23 @@
       <c r="A56" s="6" t="n">
         <v>55</v>
       </c>
-      <c r="B56" s="24" t="s">
+      <c r="B56" s="31" t="s">
         <v>475</v>
       </c>
     </row>
-    <row r="57" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" customFormat="false" ht="28.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>56</v>
       </c>
-      <c r="B57" s="24" t="s">
+      <c r="B57" s="31" t="s">
         <v>476</v>
       </c>
     </row>
-    <row r="58" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" customFormat="false" ht="41.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <v>57</v>
       </c>
-      <c r="B58" s="24" t="s">
+      <c r="B58" s="31" t="s">
         <v>477</v>
       </c>
     </row>
@@ -8555,13 +8576,13 @@
   <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B28" activeCellId="0" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="119.757085020243"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="120.82995951417"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="10.7125506072875"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
@@ -8575,11 +8596,11 @@
         <v>499</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="21" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="31" t="s">
         <v>500</v>
       </c>
       <c r="D2" s="0" t="s">
@@ -8590,27 +8611,27 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="21" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="24" t="s">
+      <c r="B3" s="31" t="s">
         <v>501</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="21" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="24" t="s">
+      <c r="B4" s="31" t="s">
         <v>502</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="21" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="24" t="s">
+      <c r="B5" s="31" t="s">
         <v>503</v>
       </c>
     </row>
@@ -8630,11 +8651,11 @@
         <v>505</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="21" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="24" t="s">
+      <c r="B8" s="31" t="s">
         <v>506</v>
       </c>
     </row>
@@ -8654,11 +8675,11 @@
         <v>508</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="11" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="21" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="31" t="s">
         <v>509</v>
       </c>
     </row>
@@ -8704,14 +8725,14 @@
   </sheetPr>
   <dimension ref="A1:E74"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A55" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B58" activeCellId="0" sqref="B58"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B21" activeCellId="0" sqref="B21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="104.87044534413"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="105.834008097166"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.3562753036437"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
@@ -8725,17 +8746,17 @@
         <v>513</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="n">
+    <row r="2" s="34" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="33" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="30" t="s">
         <v>514</v>
       </c>
-      <c r="D2" s="0" t="s">
+      <c r="D2" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="0" t="n">
+      <c r="E2" s="35" t="n">
         <f aca="false">COUNT(A2:A100)</f>
         <v>73</v>
       </c>
@@ -8748,19 +8769,19 @@
         <v>515</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="n">
+    <row r="4" s="34" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="33" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="23" t="s">
+      <c r="B4" s="30" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="n">
+    <row r="5" s="34" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="33" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="23" t="s">
+      <c r="B5" s="30" t="s">
         <v>517</v>
       </c>
     </row>
@@ -8772,19 +8793,19 @@
         <v>518</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="6" t="n">
+    <row r="7" s="34" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="33" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="B7" s="30" t="s">
         <v>519</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="6" t="n">
+    <row r="8" s="34" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="33" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="23" t="s">
+      <c r="B8" s="30" t="s">
         <v>520</v>
       </c>
     </row>
@@ -8940,75 +8961,75 @@
         <v>539</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="6" t="n">
+    <row r="28" s="34" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="33" t="n">
         <v>27</v>
       </c>
-      <c r="B28" s="23" t="s">
+      <c r="B28" s="30" t="s">
         <v>540</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="6" t="n">
+    <row r="29" s="34" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="33" t="n">
         <v>28</v>
       </c>
-      <c r="B29" s="23" t="s">
+      <c r="B29" s="30" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="6" t="n">
+    <row r="30" s="34" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="33" t="n">
         <v>29</v>
       </c>
-      <c r="B30" s="23" t="s">
+      <c r="B30" s="30" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="6" t="n">
+    <row r="31" s="34" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="33" t="n">
         <v>30</v>
       </c>
-      <c r="B31" s="23" t="s">
+      <c r="B31" s="30" t="s">
         <v>543</v>
       </c>
     </row>
-    <row r="32" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="6" t="n">
+    <row r="32" s="34" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="33" t="n">
         <v>31</v>
       </c>
-      <c r="B32" s="23" t="s">
+      <c r="B32" s="30" t="s">
         <v>544</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="6" t="n">
+    <row r="33" s="34" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="33" t="n">
         <v>32</v>
       </c>
-      <c r="B33" s="23" t="s">
+      <c r="B33" s="30" t="s">
         <v>545</v>
       </c>
     </row>
-    <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="6" t="n">
+    <row r="34" s="34" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="33" t="n">
         <v>33</v>
       </c>
-      <c r="B34" s="23" t="s">
+      <c r="B34" s="30" t="s">
         <v>546</v>
       </c>
     </row>
-    <row r="35" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="6" t="n">
+    <row r="35" s="34" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="33" t="n">
         <v>34</v>
       </c>
-      <c r="B35" s="23" t="s">
+      <c r="B35" s="30" t="s">
         <v>547</v>
       </c>
     </row>
-    <row r="36" customFormat="false" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="6" t="n">
+    <row r="36" s="34" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="33" t="n">
         <v>35</v>
       </c>
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="30" t="s">
         <v>548</v>
       </c>
     </row>
@@ -9056,11 +9077,11 @@
       <c r="A42" s="6" t="n">
         <v>41</v>
       </c>
-      <c r="B42" s="32" t="s">
+      <c r="B42" s="36" t="s">
         <v>554</v>
       </c>
     </row>
-    <row r="43" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="43" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="6" t="n">
         <v>42</v>
       </c>
@@ -9068,7 +9089,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="44" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="44" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="6" t="n">
         <v>43</v>
       </c>
@@ -9076,7 +9097,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="45" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="45" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="6" t="n">
         <v>44</v>
       </c>
@@ -9084,7 +9105,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="46" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="46" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="6" t="n">
         <v>45</v>
       </c>
@@ -9092,7 +9113,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="47" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="47" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="6" t="n">
         <v>46</v>
       </c>
@@ -9100,7 +9121,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="48" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="48" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="6" t="n">
         <v>47</v>
       </c>
@@ -9108,31 +9129,31 @@
         <v>560</v>
       </c>
     </row>
-    <row r="49" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="6" t="n">
+    <row r="49" s="38" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="33" t="n">
         <v>48</v>
       </c>
-      <c r="B49" s="23" t="s">
+      <c r="B49" s="30" t="s">
         <v>561</v>
       </c>
     </row>
-    <row r="50" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="6" t="n">
+    <row r="50" s="38" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="33" t="n">
         <v>49</v>
       </c>
-      <c r="B50" s="23" t="s">
+      <c r="B50" s="30" t="s">
         <v>562</v>
       </c>
     </row>
-    <row r="51" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A51" s="6" t="n">
+    <row r="51" s="38" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="33" t="n">
         <v>50</v>
       </c>
-      <c r="B51" s="23" t="s">
+      <c r="B51" s="30" t="s">
         <v>563</v>
       </c>
     </row>
-    <row r="52" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="52" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="6" t="n">
         <v>51</v>
       </c>
@@ -9140,15 +9161,15 @@
         <v>564</v>
       </c>
     </row>
-    <row r="53" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="6" t="n">
+    <row r="53" s="38" customFormat="true" ht="14.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="33" t="n">
         <v>52</v>
       </c>
-      <c r="B53" s="23" t="s">
+      <c r="B53" s="30" t="s">
         <v>565</v>
       </c>
     </row>
-    <row r="54" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="54" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="6" t="n">
         <v>53</v>
       </c>
@@ -9156,7 +9177,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="55" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="55" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="6" t="n">
         <v>54</v>
       </c>
@@ -9164,7 +9185,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="56" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="56" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="6" t="n">
         <v>55</v>
       </c>
@@ -9172,7 +9193,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="57" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="57" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="6" t="n">
         <v>56</v>
       </c>
@@ -9180,7 +9201,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="58" s="33" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="58" s="37" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="6" t="n">
         <v>57</v>
       </c>
@@ -9188,7 +9209,7 @@
         <v>570</v>
       </c>
     </row>
-    <row r="59" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="59" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="6" t="n">
         <v>58</v>
       </c>
@@ -9196,7 +9217,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="60" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="60" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="6" t="n">
         <v>59</v>
       </c>
@@ -9204,7 +9225,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="61" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="61" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="6" t="n">
         <v>60</v>
       </c>
@@ -9212,7 +9233,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="62" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="62" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="6" t="n">
         <v>61</v>
       </c>
@@ -9220,7 +9241,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="63" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="63" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="6" t="n">
         <v>62</v>
       </c>
@@ -9228,7 +9249,7 @@
         <v>575</v>
       </c>
     </row>
-    <row r="64" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="64" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="6" t="n">
         <v>63</v>
       </c>
@@ -9236,7 +9257,7 @@
         <v>576</v>
       </c>
     </row>
-    <row r="65" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="65" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="6" t="n">
         <v>64</v>
       </c>
@@ -9244,7 +9265,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="66" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="66" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="6" t="n">
         <v>65</v>
       </c>
@@ -9252,7 +9273,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="67" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="67" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="6" t="n">
         <v>66</v>
       </c>
@@ -9260,7 +9281,7 @@
         <v>579</v>
       </c>
     </row>
-    <row r="68" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="68" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="6" t="n">
         <v>67</v>
       </c>
@@ -9268,7 +9289,7 @@
         <v>580</v>
       </c>
     </row>
-    <row r="69" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="69" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="6" t="n">
         <v>68</v>
       </c>
@@ -9276,7 +9297,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="70" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="70" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="6" t="n">
         <v>69</v>
       </c>
@@ -9284,7 +9305,7 @@
         <v>582</v>
       </c>
     </row>
-    <row r="71" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="71" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="6" t="n">
         <v>70</v>
       </c>
@@ -9292,7 +9313,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="72" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="72" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="6" t="n">
         <v>71</v>
       </c>
@@ -9300,7 +9321,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="73" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="73" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="6" t="n">
         <v>72</v>
       </c>
@@ -9308,7 +9329,7 @@
         <v>585</v>
       </c>
     </row>
-    <row r="74" s="33" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="74" s="37" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="6" t="n">
         <v>73</v>
       </c>
@@ -9341,9 +9362,9 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="119.757085020243"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="120.82995951417"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.1052631578947"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="12.2105263157895"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -9611,7 +9632,7 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="1" width="9.10526315789474"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="93.7287449392712"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="94.587044534413"/>
     <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.57085020242915"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="0" width="11.0323886639676"/>
     <col collapsed="false" hidden="false" max="1025" min="5" style="0" width="8.57085020242915"/>
